--- a/Config/publicIndexPageConfig.xlsx
+++ b/Config/publicIndexPageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>test_groupManagementPage.py</t>
   </si>
   <si>
-    <t>TestManagementPageClass</t>
+    <t>TestManagementPage</t>
   </si>
   <si>
     <t>test_addGroup</t>
@@ -144,10 +144,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,9 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +259,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,104 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +300,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,169 +378,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +509,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,26 +548,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,41 +606,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,24 +1103,24 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.8916666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:8">
+    <row r="1" ht="19.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1340,29 +1340,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
+      <formula1>"配置方式"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
+      <formula1>"路径"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
-      <formula1>"配置方式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
-      <formula1>"路径"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
